--- a/data/trans_orig/IP44S5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP44S5_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF3C85E-C8CD-4F16-A9BB-CCD3590663A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C7254D2-95D0-434A-80FB-E264CBDD1271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0BFBAC9A-9482-4D8B-AEA7-39A8A6522184}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D9B43DC-1F0F-48A9-B647-92BA5B1ECA50}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A7FC0A-AEBF-4DDC-A3F1-4A498A193F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D57EC5-3B47-4A41-9BDA-931C4F4E31BA}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
